--- a/medicine/Mort/Cimetière_communal_de_Neuilly-Plaisance/Cimetière_communal_de_Neuilly-Plaisance.xlsx
+++ b/medicine/Mort/Cimetière_communal_de_Neuilly-Plaisance/Cimetière_communal_de_Neuilly-Plaisance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Neuilly-Plaisance</t>
+          <t>Cimetière_communal_de_Neuilly-Plaisance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Neuilly-Plaisance, est un cimetière se trouvant 23 Chemin de Meaux à Neuilly-Plaisance en Seine-Saint-Denis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Neuilly-Plaisance, est un cimetière se trouvant 23 Chemin de Meaux à Neuilly-Plaisance en Seine-Saint-Denis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Neuilly-Plaisance</t>
+          <t>Cimetière_communal_de_Neuilly-Plaisance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cimetière est relativement récent, car la création de la ville ne date que de 1892.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Neuilly-Plaisance</t>
+          <t>Cimetière_communal_de_Neuilly-Plaisance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière accueille un carré militaire[2].
-Ce carré militaire formé par des tombes de Nocéens « Morts pour la France » lors des différents conflits, encadre au centre la tombe d’un soldat de l’Infanterie de Marine (guerre 1870-1871), dont le nom est inconnu[3].
-Il s'y trouve aussi un carré de corps restitués[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière accueille un carré militaire.
+Ce carré militaire formé par des tombes de Nocéens « Morts pour la France » lors des différents conflits, encadre au centre la tombe d’un soldat de l’Infanterie de Marine (guerre 1870-1871), dont le nom est inconnu.
+Il s'y trouve aussi un carré de corps restitués.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_communal_de_Neuilly-Plaisance</t>
+          <t>Cimetière_communal_de_Neuilly-Plaisance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jean Bachelet, mort de ses blessures le 25 août 1944, membre du Mouvement de Libération Nationale[5].
-Charles Cathala (1914-1996), ancien sénateur-maire de Neuilly-Plaisance[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jean Bachelet, mort de ses blessures le 25 août 1944, membre du Mouvement de Libération Nationale.
+Charles Cathala (1914-1996), ancien sénateur-maire de Neuilly-Plaisance.</t>
         </is>
       </c>
     </row>
